--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Il15-Il15ra.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Il15-Il15ra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -91,13 +91,13 @@
     <t>Neutro</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Il15</t>
   </si>
   <si>
     <t>Il15ra</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.62287542855515</v>
+        <v>5.359381333333334</v>
       </c>
       <c r="H2">
-        <v>4.62287542855515</v>
+        <v>16.078144</v>
       </c>
       <c r="I2">
-        <v>0.06734291724577576</v>
+        <v>0.07329094749485919</v>
       </c>
       <c r="J2">
-        <v>0.06734291724577576</v>
+        <v>0.07329094749485918</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.61786324370261</v>
+        <v>3.983958666666666</v>
       </c>
       <c r="N2">
-        <v>3.61786324370261</v>
+        <v>11.951876</v>
       </c>
       <c r="O2">
-        <v>0.1583088773374</v>
+        <v>0.1637139654488447</v>
       </c>
       <c r="P2">
-        <v>0.1583088773374</v>
+        <v>0.1637139654488446</v>
       </c>
       <c r="Q2">
-        <v>16.72493109318563</v>
+        <v>21.35155371090489</v>
       </c>
       <c r="R2">
-        <v>16.72493109318563</v>
+        <v>192.163983398144</v>
       </c>
       <c r="S2">
-        <v>0.01066098162580419</v>
+        <v>0.01199875164588647</v>
       </c>
       <c r="T2">
-        <v>0.01066098162580419</v>
+        <v>0.01199875164588646</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.62287542855515</v>
+        <v>5.359381333333334</v>
       </c>
       <c r="H3">
-        <v>4.62287542855515</v>
+        <v>16.078144</v>
       </c>
       <c r="I3">
-        <v>0.06734291724577576</v>
+        <v>0.07329094749485919</v>
       </c>
       <c r="J3">
-        <v>0.06734291724577576</v>
+        <v>0.07329094749485918</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.57478429272484</v>
+        <v>7.717226666666666</v>
       </c>
       <c r="N3">
-        <v>7.57478429272484</v>
+        <v>23.15168</v>
       </c>
       <c r="O3">
-        <v>0.3314540978135468</v>
+        <v>0.3171262268452842</v>
       </c>
       <c r="P3">
-        <v>0.3314540978135468</v>
+        <v>0.3171262268452842</v>
       </c>
       <c r="Q3">
-        <v>35.01728418344317</v>
+        <v>41.35956054243556</v>
       </c>
       <c r="R3">
-        <v>35.01728418344317</v>
+        <v>372.23604488192</v>
       </c>
       <c r="S3">
-        <v>0.02232108587983095</v>
+        <v>0.02324248164096053</v>
       </c>
       <c r="T3">
-        <v>0.02232108587983095</v>
+        <v>0.02324248164096052</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.62287542855515</v>
+        <v>5.359381333333334</v>
       </c>
       <c r="H4">
-        <v>4.62287542855515</v>
+        <v>16.078144</v>
       </c>
       <c r="I4">
-        <v>0.06734291724577576</v>
+        <v>0.07329094749485919</v>
       </c>
       <c r="J4">
-        <v>0.06734291724577576</v>
+        <v>0.07329094749485918</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.49755837539841</v>
+        <v>3.027617666666667</v>
       </c>
       <c r="N4">
-        <v>2.49755837539841</v>
+        <v>9.082853</v>
       </c>
       <c r="O4">
-        <v>0.1092870669399033</v>
+        <v>0.1244147682103575</v>
       </c>
       <c r="P4">
-        <v>0.1092870669399033</v>
+        <v>0.1244147682103575</v>
       </c>
       <c r="Q4">
-        <v>11.54590124501143</v>
+        <v>16.22615760720356</v>
       </c>
       <c r="R4">
-        <v>11.54590124501143</v>
+        <v>146.035418464832</v>
       </c>
       <c r="S4">
-        <v>0.007359709904967463</v>
+        <v>0.009118476244490392</v>
       </c>
       <c r="T4">
-        <v>0.007359709904967463</v>
+        <v>0.009118476244490388</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.62287542855515</v>
+        <v>5.359381333333334</v>
       </c>
       <c r="H5">
-        <v>4.62287542855515</v>
+        <v>16.078144</v>
       </c>
       <c r="I5">
-        <v>0.06734291724577576</v>
+        <v>0.07329094749485919</v>
       </c>
       <c r="J5">
-        <v>0.06734291724577576</v>
+        <v>0.07329094749485918</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.78777236685496</v>
+        <v>4.931205333333333</v>
       </c>
       <c r="N5">
-        <v>4.78777236685496</v>
+        <v>14.793616</v>
       </c>
       <c r="O5">
-        <v>0.2095012490212685</v>
+        <v>0.2026394466180435</v>
       </c>
       <c r="P5">
-        <v>0.2095012490212685</v>
+        <v>0.2026394466180435</v>
       </c>
       <c r="Q5">
-        <v>22.13327523224913</v>
+        <v>26.42820981430044</v>
       </c>
       <c r="R5">
-        <v>22.13327523224913</v>
+        <v>237.853888328704</v>
       </c>
       <c r="S5">
-        <v>0.01410842527572595</v>
+        <v>0.01485163704247035</v>
       </c>
       <c r="T5">
-        <v>0.01410842527572595</v>
+        <v>0.01485163704247035</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.62287542855515</v>
+        <v>5.359381333333334</v>
       </c>
       <c r="H6">
-        <v>4.62287542855515</v>
+        <v>16.078144</v>
       </c>
       <c r="I6">
-        <v>0.06734291724577576</v>
+        <v>0.07329094749485919</v>
       </c>
       <c r="J6">
-        <v>0.06734291724577576</v>
+        <v>0.07329094749485918</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.0998508448734</v>
+        <v>2.220586</v>
       </c>
       <c r="N6">
-        <v>2.0998508448734</v>
+        <v>6.661758</v>
       </c>
       <c r="O6">
-        <v>0.09188435477944899</v>
+        <v>0.09125118257925072</v>
       </c>
       <c r="P6">
-        <v>0.09188435477944899</v>
+        <v>0.0912511825792507</v>
       </c>
       <c r="Q6">
-        <v>9.707348874396013</v>
+        <v>11.90096715746133</v>
       </c>
       <c r="R6">
-        <v>9.707348874396013</v>
+        <v>107.108704417152</v>
       </c>
       <c r="S6">
-        <v>0.006187760500093935</v>
+        <v>0.006687885631259674</v>
       </c>
       <c r="T6">
-        <v>0.006187760500093935</v>
+        <v>0.006687885631259671</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.62287542855515</v>
+        <v>5.359381333333334</v>
       </c>
       <c r="H7">
-        <v>4.62287542855515</v>
+        <v>16.078144</v>
       </c>
       <c r="I7">
-        <v>0.06734291724577576</v>
+        <v>0.07329094749485919</v>
       </c>
       <c r="J7">
-        <v>0.06734291724577576</v>
+        <v>0.07329094749485918</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.2753633477179</v>
+        <v>2.454279333333333</v>
       </c>
       <c r="N7">
-        <v>2.2753633477179</v>
+        <v>7.362838</v>
       </c>
       <c r="O7">
-        <v>0.09956435410843245</v>
+        <v>0.1008544102982194</v>
       </c>
       <c r="P7">
-        <v>0.09956435410843245</v>
+        <v>0.1008544102982193</v>
       </c>
       <c r="Q7">
-        <v>10.51872131120007</v>
+        <v>13.15341884585245</v>
       </c>
       <c r="R7">
-        <v>10.51872131120007</v>
+        <v>118.380769612672</v>
       </c>
       <c r="S7">
-        <v>0.006704954059353281</v>
+        <v>0.007391715289791781</v>
       </c>
       <c r="T7">
-        <v>0.006704954059353281</v>
+        <v>0.007391715289791778</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.33933430490002</v>
+        <v>2.410934333333334</v>
       </c>
       <c r="H8">
-        <v>2.33933430490002</v>
+        <v>7.232803000000001</v>
       </c>
       <c r="I8">
-        <v>0.03407783725513965</v>
+        <v>0.03297016029422675</v>
       </c>
       <c r="J8">
-        <v>0.03407783725513965</v>
+        <v>0.03297016029422675</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.61786324370261</v>
+        <v>3.983958666666666</v>
       </c>
       <c r="N8">
-        <v>3.61786324370261</v>
+        <v>11.951876</v>
       </c>
       <c r="O8">
-        <v>0.1583088773374</v>
+        <v>0.1637139654488447</v>
       </c>
       <c r="P8">
-        <v>0.1583088773374</v>
+        <v>0.1637139654488446</v>
       </c>
       <c r="Q8">
-        <v>8.463391596430377</v>
+        <v>9.605062732047555</v>
       </c>
       <c r="R8">
-        <v>8.463391596430377</v>
+        <v>86.445564588428</v>
       </c>
       <c r="S8">
-        <v>0.005394824157947782</v>
+        <v>0.005397675683251908</v>
       </c>
       <c r="T8">
-        <v>0.005394824157947782</v>
+        <v>0.005397675683251907</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.33933430490002</v>
+        <v>2.410934333333334</v>
       </c>
       <c r="H9">
-        <v>2.33933430490002</v>
+        <v>7.232803000000001</v>
       </c>
       <c r="I9">
-        <v>0.03407783725513965</v>
+        <v>0.03297016029422675</v>
       </c>
       <c r="J9">
-        <v>0.03407783725513965</v>
+        <v>0.03297016029422675</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.57478429272484</v>
+        <v>7.717226666666666</v>
       </c>
       <c r="N9">
-        <v>7.57478429272484</v>
+        <v>23.15168</v>
       </c>
       <c r="O9">
-        <v>0.3314540978135468</v>
+        <v>0.3171262268452842</v>
       </c>
       <c r="P9">
-        <v>0.3314540978135468</v>
+        <v>0.3171262268452842</v>
       </c>
       <c r="Q9">
-        <v>17.71995274818905</v>
+        <v>18.60572672878222</v>
       </c>
       <c r="R9">
-        <v>17.71995274818905</v>
+        <v>167.45154055904</v>
       </c>
       <c r="S9">
-        <v>0.01129523880283919</v>
+        <v>0.01045570253259233</v>
       </c>
       <c r="T9">
-        <v>0.01129523880283919</v>
+        <v>0.01045570253259233</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.33933430490002</v>
+        <v>2.410934333333334</v>
       </c>
       <c r="H10">
-        <v>2.33933430490002</v>
+        <v>7.232803000000001</v>
       </c>
       <c r="I10">
-        <v>0.03407783725513965</v>
+        <v>0.03297016029422675</v>
       </c>
       <c r="J10">
-        <v>0.03407783725513965</v>
+        <v>0.03297016029422675</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.49755837539841</v>
+        <v>3.027617666666667</v>
       </c>
       <c r="N10">
-        <v>2.49755837539841</v>
+        <v>9.082853</v>
       </c>
       <c r="O10">
-        <v>0.1092870669399033</v>
+        <v>0.1244147682103575</v>
       </c>
       <c r="P10">
-        <v>0.1092870669399033</v>
+        <v>0.1244147682103575</v>
       </c>
       <c r="Q10">
-        <v>5.842623986059862</v>
+        <v>7.299387380773222</v>
       </c>
       <c r="R10">
-        <v>5.842623986059862</v>
+        <v>65.694486426959</v>
       </c>
       <c r="S10">
-        <v>0.003724266881269577</v>
+        <v>0.004101974850864555</v>
       </c>
       <c r="T10">
-        <v>0.003724266881269577</v>
+        <v>0.004101974850864554</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.33933430490002</v>
+        <v>2.410934333333334</v>
       </c>
       <c r="H11">
-        <v>2.33933430490002</v>
+        <v>7.232803000000001</v>
       </c>
       <c r="I11">
-        <v>0.03407783725513965</v>
+        <v>0.03297016029422675</v>
       </c>
       <c r="J11">
-        <v>0.03407783725513965</v>
+        <v>0.03297016029422675</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.78777236685496</v>
+        <v>4.931205333333333</v>
       </c>
       <c r="N11">
-        <v>4.78777236685496</v>
+        <v>14.793616</v>
       </c>
       <c r="O11">
-        <v>0.2095012490212685</v>
+        <v>0.2026394466180435</v>
       </c>
       <c r="P11">
-        <v>0.2095012490212685</v>
+        <v>0.2026394466180435</v>
       </c>
       <c r="Q11">
-        <v>11.20020014183617</v>
+        <v>11.88881224284978</v>
       </c>
       <c r="R11">
-        <v>11.20020014183617</v>
+        <v>106.999310185648</v>
       </c>
       <c r="S11">
-        <v>0.007139349468895275</v>
+        <v>0.006681055036930299</v>
       </c>
       <c r="T11">
-        <v>0.007139349468895275</v>
+        <v>0.006681055036930298</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.33933430490002</v>
+        <v>2.410934333333334</v>
       </c>
       <c r="H12">
-        <v>2.33933430490002</v>
+        <v>7.232803000000001</v>
       </c>
       <c r="I12">
-        <v>0.03407783725513965</v>
+        <v>0.03297016029422675</v>
       </c>
       <c r="J12">
-        <v>0.03407783725513965</v>
+        <v>0.03297016029422675</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.0998508448734</v>
+        <v>2.220586</v>
       </c>
       <c r="N12">
-        <v>2.0998508448734</v>
+        <v>6.661758</v>
       </c>
       <c r="O12">
-        <v>0.09188435477944899</v>
+        <v>0.09125118257925072</v>
       </c>
       <c r="P12">
-        <v>0.09188435477944899</v>
+        <v>0.0912511825792507</v>
       </c>
       <c r="Q12">
-        <v>4.912253116585635</v>
+        <v>5.353687027519333</v>
       </c>
       <c r="R12">
-        <v>4.912253116585635</v>
+        <v>48.183183247674</v>
       </c>
       <c r="S12">
-        <v>0.003131220088467576</v>
+        <v>0.003008566116675647</v>
       </c>
       <c r="T12">
-        <v>0.003131220088467576</v>
+        <v>0.003008566116675647</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.33933430490002</v>
+        <v>2.410934333333334</v>
       </c>
       <c r="H13">
-        <v>2.33933430490002</v>
+        <v>7.232803000000001</v>
       </c>
       <c r="I13">
-        <v>0.03407783725513965</v>
+        <v>0.03297016029422675</v>
       </c>
       <c r="J13">
-        <v>0.03407783725513965</v>
+        <v>0.03297016029422675</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.2753633477179</v>
+        <v>2.454279333333333</v>
       </c>
       <c r="N13">
-        <v>2.2753633477179</v>
+        <v>7.362838</v>
       </c>
       <c r="O13">
-        <v>0.09956435410843245</v>
+        <v>0.1008544102982194</v>
       </c>
       <c r="P13">
-        <v>0.09956435410843245</v>
+        <v>0.1008544102982193</v>
       </c>
       <c r="Q13">
-        <v>5.322835535428635</v>
+        <v>5.917106308323778</v>
       </c>
       <c r="R13">
-        <v>5.322835535428635</v>
+        <v>53.253956774914</v>
       </c>
       <c r="S13">
-        <v>0.003392937855720256</v>
+        <v>0.003325186073912005</v>
       </c>
       <c r="T13">
-        <v>0.003392937855720256</v>
+        <v>0.003325186073912004</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>17.2738770325541</v>
+        <v>19.32480766666667</v>
       </c>
       <c r="H14">
-        <v>17.2738770325541</v>
+        <v>57.974423</v>
       </c>
       <c r="I14">
-        <v>0.2516341375611263</v>
+        <v>0.2642718209351624</v>
       </c>
       <c r="J14">
-        <v>0.2516341375611263</v>
+        <v>0.2642718209351624</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.61786324370261</v>
+        <v>3.983958666666666</v>
       </c>
       <c r="N14">
-        <v>3.61786324370261</v>
+        <v>11.951876</v>
       </c>
       <c r="O14">
-        <v>0.1583088773374</v>
+        <v>0.1637139654488447</v>
       </c>
       <c r="P14">
-        <v>0.1583088773374</v>
+        <v>0.1637139654488446</v>
       </c>
       <c r="Q14">
-        <v>62.49452479231619</v>
+        <v>76.9892349852831</v>
       </c>
       <c r="R14">
-        <v>62.49452479231619</v>
+        <v>692.903114867548</v>
       </c>
       <c r="S14">
-        <v>0.03983591781706677</v>
+        <v>0.04326498776168245</v>
       </c>
       <c r="T14">
-        <v>0.03983591781706677</v>
+        <v>0.04326498776168244</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>17.2738770325541</v>
+        <v>19.32480766666667</v>
       </c>
       <c r="H15">
-        <v>17.2738770325541</v>
+        <v>57.974423</v>
       </c>
       <c r="I15">
-        <v>0.2516341375611263</v>
+        <v>0.2642718209351624</v>
       </c>
       <c r="J15">
-        <v>0.2516341375611263</v>
+        <v>0.2642718209351624</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.57478429272484</v>
+        <v>7.717226666666666</v>
       </c>
       <c r="N15">
-        <v>7.57478429272484</v>
+        <v>23.15168</v>
       </c>
       <c r="O15">
-        <v>0.3314540978135468</v>
+        <v>0.3171262268452842</v>
       </c>
       <c r="P15">
-        <v>0.3314540978135468</v>
+        <v>0.3171262268452842</v>
       </c>
       <c r="Q15">
-        <v>130.8458924206512</v>
+        <v>149.1339210534044</v>
       </c>
       <c r="R15">
-        <v>130.8458924206512</v>
+        <v>1342.20528948064</v>
       </c>
       <c r="S15">
-        <v>0.08340516604441305</v>
+        <v>0.08380752543470066</v>
       </c>
       <c r="T15">
-        <v>0.08340516604441305</v>
+        <v>0.08380752543470064</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>17.2738770325541</v>
+        <v>19.32480766666667</v>
       </c>
       <c r="H16">
-        <v>17.2738770325541</v>
+        <v>57.974423</v>
       </c>
       <c r="I16">
-        <v>0.2516341375611263</v>
+        <v>0.2642718209351624</v>
       </c>
       <c r="J16">
-        <v>0.2516341375611263</v>
+        <v>0.2642718209351624</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.49755837539841</v>
+        <v>3.027617666666667</v>
       </c>
       <c r="N16">
-        <v>2.49755837539841</v>
+        <v>9.082853</v>
       </c>
       <c r="O16">
-        <v>0.1092870669399033</v>
+        <v>0.1244147682103575</v>
       </c>
       <c r="P16">
-        <v>0.1092870669399033</v>
+        <v>0.1244147682103575</v>
       </c>
       <c r="Q16">
-        <v>43.14251625825772</v>
+        <v>58.50812909653545</v>
       </c>
       <c r="R16">
-        <v>43.14251625825772</v>
+        <v>526.5731618688191</v>
       </c>
       <c r="S16">
-        <v>0.02750035683600764</v>
+        <v>0.03287931734617735</v>
       </c>
       <c r="T16">
-        <v>0.02750035683600764</v>
+        <v>0.03287931734617735</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>17.2738770325541</v>
+        <v>19.32480766666667</v>
       </c>
       <c r="H17">
-        <v>17.2738770325541</v>
+        <v>57.974423</v>
       </c>
       <c r="I17">
-        <v>0.2516341375611263</v>
+        <v>0.2642718209351624</v>
       </c>
       <c r="J17">
-        <v>0.2516341375611263</v>
+        <v>0.2642718209351624</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.78777236685496</v>
+        <v>4.931205333333333</v>
       </c>
       <c r="N17">
-        <v>4.78777236685496</v>
+        <v>14.793616</v>
       </c>
       <c r="O17">
-        <v>0.2095012490212685</v>
+        <v>0.2026394466180435</v>
       </c>
       <c r="P17">
-        <v>0.2095012490212685</v>
+        <v>0.2026394466180435</v>
       </c>
       <c r="Q17">
-        <v>82.70339112491308</v>
+        <v>95.29459463150755</v>
       </c>
       <c r="R17">
-        <v>82.70339112491308</v>
+        <v>857.6513516835679</v>
       </c>
       <c r="S17">
-        <v>0.05271766611544566</v>
+        <v>0.05355189555104401</v>
       </c>
       <c r="T17">
-        <v>0.05271766611544566</v>
+        <v>0.053551895551044</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>17.2738770325541</v>
+        <v>19.32480766666667</v>
       </c>
       <c r="H18">
-        <v>17.2738770325541</v>
+        <v>57.974423</v>
       </c>
       <c r="I18">
-        <v>0.2516341375611263</v>
+        <v>0.2642718209351624</v>
       </c>
       <c r="J18">
-        <v>0.2516341375611263</v>
+        <v>0.2642718209351624</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.0998508448734</v>
+        <v>2.220586</v>
       </c>
       <c r="N18">
-        <v>2.0998508448734</v>
+        <v>6.661758</v>
       </c>
       <c r="O18">
-        <v>0.09188435477944899</v>
+        <v>0.09125118257925072</v>
       </c>
       <c r="P18">
-        <v>0.09188435477944899</v>
+        <v>0.0912511825792507</v>
       </c>
       <c r="Q18">
-        <v>36.27256528104795</v>
+        <v>42.91239735729267</v>
       </c>
       <c r="R18">
-        <v>36.27256528104795</v>
+        <v>386.211576215634</v>
       </c>
       <c r="S18">
-        <v>0.0231212403702872</v>
+        <v>0.02411511618270556</v>
       </c>
       <c r="T18">
-        <v>0.0231212403702872</v>
+        <v>0.02411511618270555</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>17.2738770325541</v>
+        <v>19.32480766666667</v>
       </c>
       <c r="H19">
-        <v>17.2738770325541</v>
+        <v>57.974423</v>
       </c>
       <c r="I19">
-        <v>0.2516341375611263</v>
+        <v>0.2642718209351624</v>
       </c>
       <c r="J19">
-        <v>0.2516341375611263</v>
+        <v>0.2642718209351624</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.2753633477179</v>
+        <v>2.454279333333333</v>
       </c>
       <c r="N19">
-        <v>2.2753633477179</v>
+        <v>7.362838</v>
       </c>
       <c r="O19">
-        <v>0.09956435410843245</v>
+        <v>0.1008544102982194</v>
       </c>
       <c r="P19">
-        <v>0.09956435410843245</v>
+        <v>0.1008544102982193</v>
       </c>
       <c r="Q19">
-        <v>39.30434667285964</v>
+        <v>47.42847607694156</v>
       </c>
       <c r="R19">
-        <v>39.30434667285964</v>
+        <v>426.856284692474</v>
       </c>
       <c r="S19">
-        <v>0.02505379037790598</v>
+        <v>0.02665297865885243</v>
       </c>
       <c r="T19">
-        <v>0.02505379037790598</v>
+        <v>0.02665297865885242</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>18.8283445343831</v>
+        <v>19.08605666666667</v>
       </c>
       <c r="H20">
-        <v>18.8283445343831</v>
+        <v>57.25817000000001</v>
       </c>
       <c r="I20">
-        <v>0.2742785669762697</v>
+        <v>0.2610068382968657</v>
       </c>
       <c r="J20">
-        <v>0.2742785669762697</v>
+        <v>0.2610068382968657</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.61786324370261</v>
+        <v>3.983958666666666</v>
       </c>
       <c r="N20">
-        <v>3.61786324370261</v>
+        <v>11.951876</v>
       </c>
       <c r="O20">
-        <v>0.1583088773374</v>
+        <v>0.1637139654488447</v>
       </c>
       <c r="P20">
-        <v>0.1583088773374</v>
+        <v>0.1637139654488446</v>
       </c>
       <c r="Q20">
-        <v>68.11837563071354</v>
+        <v>76.03806086965777</v>
       </c>
       <c r="R20">
-        <v>68.11837563071354</v>
+        <v>684.3425478269201</v>
       </c>
       <c r="S20">
-        <v>0.04342073201572413</v>
+        <v>0.04273046450684526</v>
       </c>
       <c r="T20">
-        <v>0.04342073201572413</v>
+        <v>0.04273046450684525</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>18.8283445343831</v>
+        <v>19.08605666666667</v>
       </c>
       <c r="H21">
-        <v>18.8283445343831</v>
+        <v>57.25817000000001</v>
       </c>
       <c r="I21">
-        <v>0.2742785669762697</v>
+        <v>0.2610068382968657</v>
       </c>
       <c r="J21">
-        <v>0.2742785669762697</v>
+        <v>0.2610068382968657</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>7.57478429272484</v>
+        <v>7.717226666666666</v>
       </c>
       <c r="N21">
-        <v>7.57478429272484</v>
+        <v>23.15168</v>
       </c>
       <c r="O21">
-        <v>0.3314540978135468</v>
+        <v>0.3171262268452842</v>
       </c>
       <c r="P21">
-        <v>0.3314540978135468</v>
+        <v>0.3171262268452842</v>
       </c>
       <c r="Q21">
-        <v>142.6206484370567</v>
+        <v>147.2914254695111</v>
       </c>
       <c r="R21">
-        <v>142.6206484370567</v>
+        <v>1325.6228292256</v>
       </c>
       <c r="S21">
-        <v>0.09091075496671196</v>
+        <v>0.08277211380990224</v>
       </c>
       <c r="T21">
-        <v>0.09091075496671196</v>
+        <v>0.08277211380990222</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>18.8283445343831</v>
+        <v>19.08605666666667</v>
       </c>
       <c r="H22">
-        <v>18.8283445343831</v>
+        <v>57.25817000000001</v>
       </c>
       <c r="I22">
-        <v>0.2742785669762697</v>
+        <v>0.2610068382968657</v>
       </c>
       <c r="J22">
-        <v>0.2742785669762697</v>
+        <v>0.2610068382968657</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.49755837539841</v>
+        <v>3.027617666666667</v>
       </c>
       <c r="N22">
-        <v>2.49755837539841</v>
+        <v>9.082853</v>
       </c>
       <c r="O22">
-        <v>0.1092870669399033</v>
+        <v>0.1244147682103575</v>
       </c>
       <c r="P22">
-        <v>0.1092870669399033</v>
+        <v>0.1244147682103575</v>
       </c>
       <c r="Q22">
-        <v>47.02488958673538</v>
+        <v>57.78528235100111</v>
       </c>
       <c r="R22">
-        <v>47.02488958673538</v>
+        <v>520.06754115901</v>
       </c>
       <c r="S22">
-        <v>0.02997510010931633</v>
+        <v>0.03247310528802282</v>
       </c>
       <c r="T22">
-        <v>0.02997510010931633</v>
+        <v>0.03247310528802281</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>18.8283445343831</v>
+        <v>19.08605666666667</v>
       </c>
       <c r="H23">
-        <v>18.8283445343831</v>
+        <v>57.25817000000001</v>
       </c>
       <c r="I23">
-        <v>0.2742785669762697</v>
+        <v>0.2610068382968657</v>
       </c>
       <c r="J23">
-        <v>0.2742785669762697</v>
+        <v>0.2610068382968657</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>4.78777236685496</v>
+        <v>4.931205333333333</v>
       </c>
       <c r="N23">
-        <v>4.78777236685496</v>
+        <v>14.793616</v>
       </c>
       <c r="O23">
-        <v>0.2095012490212685</v>
+        <v>0.2026394466180435</v>
       </c>
       <c r="P23">
-        <v>0.2095012490212685</v>
+        <v>0.2026394466180435</v>
       </c>
       <c r="Q23">
-        <v>90.14582767534402</v>
+        <v>94.11726442696889</v>
       </c>
       <c r="R23">
-        <v>90.14582767534402</v>
+        <v>847.05537984272</v>
       </c>
       <c r="S23">
-        <v>0.05746170236129217</v>
+        <v>0.05289028127600203</v>
       </c>
       <c r="T23">
-        <v>0.05746170236129217</v>
+        <v>0.05289028127600202</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>18.8283445343831</v>
+        <v>19.08605666666667</v>
       </c>
       <c r="H24">
-        <v>18.8283445343831</v>
+        <v>57.25817000000001</v>
       </c>
       <c r="I24">
-        <v>0.2742785669762697</v>
+        <v>0.2610068382968657</v>
       </c>
       <c r="J24">
-        <v>0.2742785669762697</v>
+        <v>0.2610068382968657</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.0998508448734</v>
+        <v>2.220586</v>
       </c>
       <c r="N24">
-        <v>2.0998508448734</v>
+        <v>6.661758</v>
       </c>
       <c r="O24">
-        <v>0.09188435477944899</v>
+        <v>0.09125118257925072</v>
       </c>
       <c r="P24">
-        <v>0.09188435477944899</v>
+        <v>0.0912511825792507</v>
       </c>
       <c r="Q24">
-        <v>39.53671517809182</v>
+        <v>42.38223022920667</v>
       </c>
       <c r="R24">
-        <v>39.53671517809182</v>
+        <v>381.4400720628601</v>
       </c>
       <c r="S24">
-        <v>0.02520190915644643</v>
+        <v>0.02381718265586026</v>
       </c>
       <c r="T24">
-        <v>0.02520190915644643</v>
+        <v>0.02381718265586025</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>18.8283445343831</v>
+        <v>19.08605666666667</v>
       </c>
       <c r="H25">
-        <v>18.8283445343831</v>
+        <v>57.25817000000001</v>
       </c>
       <c r="I25">
-        <v>0.2742785669762697</v>
+        <v>0.2610068382968657</v>
       </c>
       <c r="J25">
-        <v>0.2742785669762697</v>
+        <v>0.2610068382968657</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.2753633477179</v>
+        <v>2.454279333333333</v>
       </c>
       <c r="N25">
-        <v>2.2753633477179</v>
+        <v>7.362838</v>
       </c>
       <c r="O25">
-        <v>0.09956435410843245</v>
+        <v>0.1008544102982194</v>
       </c>
       <c r="P25">
-        <v>0.09956435410843245</v>
+        <v>0.1008544102982193</v>
       </c>
       <c r="Q25">
-        <v>42.84132505173995</v>
+        <v>46.8425144318289</v>
       </c>
       <c r="R25">
-        <v>42.84132505173995</v>
+        <v>421.58262988646</v>
       </c>
       <c r="S25">
-        <v>0.02730836836677872</v>
+        <v>0.02632369076023308</v>
       </c>
       <c r="T25">
-        <v>0.02730836836677872</v>
+        <v>0.02632369076023308</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,61 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>25.5823636057955</v>
+        <v>26.534778</v>
       </c>
       <c r="H26">
-        <v>25.5823636057955</v>
+        <v>79.60433399999999</v>
       </c>
       <c r="I26">
-        <v>0.3726665409616887</v>
+        <v>0.3628700591036648</v>
       </c>
       <c r="J26">
-        <v>0.3726665409616887</v>
+        <v>0.3628700591036647</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.61786324370261</v>
+        <v>3.983958666666666</v>
       </c>
       <c r="N26">
-        <v>3.61786324370261</v>
+        <v>11.951876</v>
       </c>
       <c r="O26">
-        <v>0.1583088773374</v>
+        <v>0.1637139654488447</v>
       </c>
       <c r="P26">
-        <v>0.1583088773374</v>
+        <v>0.1637139654488446</v>
       </c>
       <c r="Q26">
-        <v>92.5534929764429</v>
+        <v>105.713458781176</v>
       </c>
       <c r="R26">
-        <v>92.5534929764429</v>
+        <v>951.4211290305839</v>
       </c>
       <c r="S26">
-        <v>0.0589964217208571</v>
+        <v>0.05940689631851759</v>
       </c>
       <c r="T26">
-        <v>0.0589964217208571</v>
+        <v>0.05940689631851758</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,61 +2078,61 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>25.5823636057955</v>
+        <v>26.534778</v>
       </c>
       <c r="H27">
-        <v>25.5823636057955</v>
+        <v>79.60433399999999</v>
       </c>
       <c r="I27">
-        <v>0.3726665409616887</v>
+        <v>0.3628700591036648</v>
       </c>
       <c r="J27">
-        <v>0.3726665409616887</v>
+        <v>0.3628700591036647</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>7.57478429272484</v>
+        <v>7.717226666666666</v>
       </c>
       <c r="N27">
-        <v>7.57478429272484</v>
+        <v>23.15168</v>
       </c>
       <c r="O27">
-        <v>0.3314540978135468</v>
+        <v>0.3171262268452842</v>
       </c>
       <c r="P27">
-        <v>0.3314540978135468</v>
+        <v>0.3171262268452842</v>
       </c>
       <c r="Q27">
-        <v>193.7808860119553</v>
+        <v>204.77489637568</v>
       </c>
       <c r="R27">
-        <v>193.7808860119553</v>
+        <v>1842.97406738112</v>
       </c>
       <c r="S27">
-        <v>0.1235218521197517</v>
+        <v>0.1150756126786705</v>
       </c>
       <c r="T27">
-        <v>0.1235218521197517</v>
+        <v>0.1150756126786705</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,61 +2140,61 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>25.5823636057955</v>
+        <v>26.534778</v>
       </c>
       <c r="H28">
-        <v>25.5823636057955</v>
+        <v>79.60433399999999</v>
       </c>
       <c r="I28">
-        <v>0.3726665409616887</v>
+        <v>0.3628700591036648</v>
       </c>
       <c r="J28">
-        <v>0.3726665409616887</v>
+        <v>0.3628700591036647</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>2.49755837539841</v>
+        <v>3.027617666666667</v>
       </c>
       <c r="N28">
-        <v>2.49755837539841</v>
+        <v>9.082853</v>
       </c>
       <c r="O28">
-        <v>0.1092870669399033</v>
+        <v>0.1244147682103575</v>
       </c>
       <c r="P28">
-        <v>0.1092870669399033</v>
+        <v>0.1244147682103575</v>
       </c>
       <c r="Q28">
-        <v>63.89344648614202</v>
+        <v>80.337162653878</v>
       </c>
       <c r="R28">
-        <v>63.89344648614202</v>
+        <v>723.0344638849019</v>
       </c>
       <c r="S28">
-        <v>0.04072763320834228</v>
+        <v>0.04514639429386119</v>
       </c>
       <c r="T28">
-        <v>0.04072763320834228</v>
+        <v>0.04514639429386118</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,61 +2202,61 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>25.5823636057955</v>
+        <v>26.534778</v>
       </c>
       <c r="H29">
-        <v>25.5823636057955</v>
+        <v>79.60433399999999</v>
       </c>
       <c r="I29">
-        <v>0.3726665409616887</v>
+        <v>0.3628700591036648</v>
       </c>
       <c r="J29">
-        <v>0.3726665409616887</v>
+        <v>0.3628700591036647</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>4.78777236685496</v>
+        <v>4.931205333333333</v>
       </c>
       <c r="N29">
-        <v>4.78777236685496</v>
+        <v>14.793616</v>
       </c>
       <c r="O29">
-        <v>0.2095012490212685</v>
+        <v>0.2026394466180435</v>
       </c>
       <c r="P29">
-        <v>0.2095012490212685</v>
+        <v>0.2026394466180435</v>
       </c>
       <c r="Q29">
-        <v>122.4825335506637</v>
+        <v>130.848438792416</v>
       </c>
       <c r="R29">
-        <v>122.4825335506637</v>
+        <v>1177.635949131744</v>
       </c>
       <c r="S29">
-        <v>0.0780741057999095</v>
+        <v>0.07353178797102337</v>
       </c>
       <c r="T29">
-        <v>0.0780741057999095</v>
+        <v>0.07353178797102336</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,61 +2264,61 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>25.5823636057955</v>
+        <v>26.534778</v>
       </c>
       <c r="H30">
-        <v>25.5823636057955</v>
+        <v>79.60433399999999</v>
       </c>
       <c r="I30">
-        <v>0.3726665409616887</v>
+        <v>0.3628700591036648</v>
       </c>
       <c r="J30">
-        <v>0.3726665409616887</v>
+        <v>0.3628700591036647</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.0998508448734</v>
+        <v>2.220586</v>
       </c>
       <c r="N30">
-        <v>2.0998508448734</v>
+        <v>6.661758</v>
       </c>
       <c r="O30">
-        <v>0.09188435477944899</v>
+        <v>0.09125118257925072</v>
       </c>
       <c r="P30">
-        <v>0.09188435477944899</v>
+        <v>0.0912511825792507</v>
       </c>
       <c r="Q30">
-        <v>53.7191478314882</v>
+        <v>58.92275653990799</v>
       </c>
       <c r="R30">
-        <v>53.7191478314882</v>
+        <v>530.304808859172</v>
       </c>
       <c r="S30">
-        <v>0.03424222466415386</v>
+        <v>0.03311232201581201</v>
       </c>
       <c r="T30">
-        <v>0.03424222466415386</v>
+        <v>0.033112322015812</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>27</v>
-      </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>25.5823636057955</v>
+        <v>26.534778</v>
       </c>
       <c r="H31">
-        <v>25.5823636057955</v>
+        <v>79.60433399999999</v>
       </c>
       <c r="I31">
-        <v>0.3726665409616887</v>
+        <v>0.3628700591036648</v>
       </c>
       <c r="J31">
-        <v>0.3726665409616887</v>
+        <v>0.3628700591036647</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>2.2753633477179</v>
+        <v>2.454279333333333</v>
       </c>
       <c r="N31">
-        <v>2.2753633477179</v>
+        <v>7.362838</v>
       </c>
       <c r="O31">
-        <v>0.09956435410843245</v>
+        <v>0.1008544102982194</v>
       </c>
       <c r="P31">
-        <v>0.09956435410843245</v>
+        <v>0.1008544102982193</v>
       </c>
       <c r="Q31">
-        <v>58.20917249661941</v>
+        <v>65.123757259988</v>
       </c>
       <c r="R31">
-        <v>58.20917249661941</v>
+        <v>586.113815339892</v>
       </c>
       <c r="S31">
-        <v>0.03710430344867421</v>
+        <v>0.03659704582578011</v>
       </c>
       <c r="T31">
-        <v>0.03710430344867421</v>
+        <v>0.03659704582578011</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G32">
+        <v>0.40878</v>
+      </c>
+      <c r="H32">
+        <v>1.22634</v>
+      </c>
+      <c r="I32">
+        <v>0.005590173875221269</v>
+      </c>
+      <c r="J32">
+        <v>0.005590173875221269</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>3.983958666666666</v>
+      </c>
+      <c r="N32">
+        <v>11.951876</v>
+      </c>
+      <c r="O32">
+        <v>0.1637139654488447</v>
+      </c>
+      <c r="P32">
+        <v>0.1637139654488446</v>
+      </c>
+      <c r="Q32">
+        <v>1.62856262376</v>
+      </c>
+      <c r="R32">
+        <v>14.65706361384</v>
+      </c>
+      <c r="S32">
+        <v>0.000915189532661009</v>
+      </c>
+      <c r="T32">
+        <v>0.0009151895326610088</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G33">
+        <v>0.40878</v>
+      </c>
+      <c r="H33">
+        <v>1.22634</v>
+      </c>
+      <c r="I33">
+        <v>0.005590173875221269</v>
+      </c>
+      <c r="J33">
+        <v>0.005590173875221269</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>7.717226666666666</v>
+      </c>
+      <c r="N33">
+        <v>23.15168</v>
+      </c>
+      <c r="O33">
+        <v>0.3171262268452842</v>
+      </c>
+      <c r="P33">
+        <v>0.3171262268452842</v>
+      </c>
+      <c r="Q33">
+        <v>3.1546479168</v>
+      </c>
+      <c r="R33">
+        <v>28.3918312512</v>
+      </c>
+      <c r="S33">
+        <v>0.001772790748458002</v>
+      </c>
+      <c r="T33">
+        <v>0.001772790748458002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G34">
+        <v>0.40878</v>
+      </c>
+      <c r="H34">
+        <v>1.22634</v>
+      </c>
+      <c r="I34">
+        <v>0.005590173875221269</v>
+      </c>
+      <c r="J34">
+        <v>0.005590173875221269</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>3.027617666666667</v>
+      </c>
+      <c r="N34">
+        <v>9.082853</v>
+      </c>
+      <c r="O34">
+        <v>0.1244147682103575</v>
+      </c>
+      <c r="P34">
+        <v>0.1244147682103575</v>
+      </c>
+      <c r="Q34">
+        <v>1.23762954978</v>
+      </c>
+      <c r="R34">
+        <v>11.13866594802</v>
+      </c>
+      <c r="S34">
+        <v>0.0006955001869412504</v>
+      </c>
+      <c r="T34">
+        <v>0.0006955001869412503</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G35">
+        <v>0.40878</v>
+      </c>
+      <c r="H35">
+        <v>1.22634</v>
+      </c>
+      <c r="I35">
+        <v>0.005590173875221269</v>
+      </c>
+      <c r="J35">
+        <v>0.005590173875221269</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>4.931205333333333</v>
+      </c>
+      <c r="N35">
+        <v>14.793616</v>
+      </c>
+      <c r="O35">
+        <v>0.2026394466180435</v>
+      </c>
+      <c r="P35">
+        <v>0.2026394466180435</v>
+      </c>
+      <c r="Q35">
+        <v>2.015778116159999</v>
+      </c>
+      <c r="R35">
+        <v>18.14200304544</v>
+      </c>
+      <c r="S35">
+        <v>0.001132789740573482</v>
+      </c>
+      <c r="T35">
+        <v>0.001132789740573482</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G36">
+        <v>0.40878</v>
+      </c>
+      <c r="H36">
+        <v>1.22634</v>
+      </c>
+      <c r="I36">
+        <v>0.005590173875221269</v>
+      </c>
+      <c r="J36">
+        <v>0.005590173875221269</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>2.220586</v>
+      </c>
+      <c r="N36">
+        <v>6.661758</v>
+      </c>
+      <c r="O36">
+        <v>0.09125118257925072</v>
+      </c>
+      <c r="P36">
+        <v>0.0912511825792507</v>
+      </c>
+      <c r="Q36">
+        <v>0.90773114508</v>
+      </c>
+      <c r="R36">
+        <v>8.16958030572</v>
+      </c>
+      <c r="S36">
+        <v>0.0005101099769375735</v>
+      </c>
+      <c r="T36">
+        <v>0.0005101099769375735</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G37">
+        <v>0.40878</v>
+      </c>
+      <c r="H37">
+        <v>1.22634</v>
+      </c>
+      <c r="I37">
+        <v>0.005590173875221269</v>
+      </c>
+      <c r="J37">
+        <v>0.005590173875221269</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>2.454279333333333</v>
+      </c>
+      <c r="N37">
+        <v>7.362838</v>
+      </c>
+      <c r="O37">
+        <v>0.1008544102982194</v>
+      </c>
+      <c r="P37">
+        <v>0.1008544102982193</v>
+      </c>
+      <c r="Q37">
+        <v>1.00326030588</v>
+      </c>
+      <c r="R37">
+        <v>9.02934275292</v>
+      </c>
+      <c r="S37">
+        <v>0.0005637936896499527</v>
+      </c>
+      <c r="T37">
+        <v>0.0005637936896499527</v>
       </c>
     </row>
   </sheetData>
